--- a/hourly_temperature.xlsx
+++ b/hourly_temperature.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\待修改论文\IEEETEMPR-TII-EB加密聚类\ACLA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3470F1-46F6-47F9-9806-1E93020C1889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F22D16-49A1-41F4-8095-B12615661A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -933,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A192"/>
+  <dimension ref="A1:A168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A8708" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1784,126 +1784,6 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <v>27.2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <v>28.3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <v>32.200000000000003</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <v>31.1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <v>27.8</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <v>23.9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <v>23.3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <v>22.2</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
